--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_214.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_214.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32796-d78709-Reviews-DoubleTree_by_Hilton_Hotel_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>656</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Los-Angeles-Norwalk.h53.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_214.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_214.xlsx
@@ -8377,7 +8377,7 @@
         <v>27216</v>
       </c>
       <c r="B2" t="n">
-        <v>139246</v>
+        <v>170358</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -8448,7 +8448,7 @@
         <v>27216</v>
       </c>
       <c r="B3" t="n">
-        <v>139247</v>
+        <v>170359</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -8519,7 +8519,7 @@
         <v>27216</v>
       </c>
       <c r="B4" t="n">
-        <v>139248</v>
+        <v>170360</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -8590,7 +8590,7 @@
         <v>27216</v>
       </c>
       <c r="B5" t="n">
-        <v>139249</v>
+        <v>170361</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -8732,7 +8732,7 @@
         <v>27216</v>
       </c>
       <c r="B7" t="n">
-        <v>139250</v>
+        <v>170362</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -8789,7 +8789,7 @@
         <v>27216</v>
       </c>
       <c r="B8" t="n">
-        <v>139251</v>
+        <v>170363</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -8860,7 +8860,7 @@
         <v>27216</v>
       </c>
       <c r="B9" t="n">
-        <v>139252</v>
+        <v>170364</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
@@ -8931,7 +8931,7 @@
         <v>27216</v>
       </c>
       <c r="B10" t="n">
-        <v>139253</v>
+        <v>170365</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
@@ -9063,7 +9063,7 @@
         <v>27216</v>
       </c>
       <c r="B12" t="n">
-        <v>139254</v>
+        <v>170366</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -9134,7 +9134,7 @@
         <v>27216</v>
       </c>
       <c r="B13" t="n">
-        <v>139255</v>
+        <v>170367</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>
@@ -9209,7 +9209,7 @@
         <v>27216</v>
       </c>
       <c r="B14" t="n">
-        <v>139256</v>
+        <v>170368</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
@@ -9341,7 +9341,7 @@
         <v>27216</v>
       </c>
       <c r="B16" t="n">
-        <v>139258</v>
+        <v>170369</v>
       </c>
       <c r="C16" t="s">
         <v>139</v>
@@ -9412,7 +9412,7 @@
         <v>27216</v>
       </c>
       <c r="B17" t="n">
-        <v>139259</v>
+        <v>170370</v>
       </c>
       <c r="C17" t="s">
         <v>145</v>
@@ -9473,7 +9473,7 @@
         <v>27216</v>
       </c>
       <c r="B18" t="n">
-        <v>139260</v>
+        <v>170371</v>
       </c>
       <c r="C18" t="s">
         <v>153</v>
@@ -9544,7 +9544,7 @@
         <v>27216</v>
       </c>
       <c r="B19" t="n">
-        <v>139261</v>
+        <v>170372</v>
       </c>
       <c r="C19" t="s">
         <v>160</v>
@@ -9615,7 +9615,7 @@
         <v>27216</v>
       </c>
       <c r="B20" t="n">
-        <v>139262</v>
+        <v>170373</v>
       </c>
       <c r="C20" t="s">
         <v>166</v>
@@ -9757,7 +9757,7 @@
         <v>27216</v>
       </c>
       <c r="B22" t="n">
-        <v>139263</v>
+        <v>170374</v>
       </c>
       <c r="C22" t="s">
         <v>179</v>
@@ -9828,7 +9828,7 @@
         <v>27216</v>
       </c>
       <c r="B23" t="n">
-        <v>139264</v>
+        <v>170375</v>
       </c>
       <c r="C23" t="s">
         <v>185</v>
@@ -9899,7 +9899,7 @@
         <v>27216</v>
       </c>
       <c r="B24" t="n">
-        <v>139265</v>
+        <v>170376</v>
       </c>
       <c r="C24" t="s">
         <v>191</v>
@@ -9970,7 +9970,7 @@
         <v>27216</v>
       </c>
       <c r="B25" t="n">
-        <v>139266</v>
+        <v>170377</v>
       </c>
       <c r="C25" t="s">
         <v>197</v>
@@ -10169,7 +10169,7 @@
         <v>27216</v>
       </c>
       <c r="B28" t="n">
-        <v>139267</v>
+        <v>170378</v>
       </c>
       <c r="C28" t="s">
         <v>215</v>
@@ -10301,7 +10301,7 @@
         <v>27216</v>
       </c>
       <c r="B30" t="n">
-        <v>139268</v>
+        <v>170379</v>
       </c>
       <c r="C30" t="s">
         <v>228</v>
@@ -10372,7 +10372,7 @@
         <v>27216</v>
       </c>
       <c r="B31" t="n">
-        <v>139269</v>
+        <v>170380</v>
       </c>
       <c r="C31" t="s">
         <v>235</v>
@@ -10443,7 +10443,7 @@
         <v>27216</v>
       </c>
       <c r="B32" t="n">
-        <v>139270</v>
+        <v>170381</v>
       </c>
       <c r="C32" t="s">
         <v>241</v>
@@ -10514,7 +10514,7 @@
         <v>27216</v>
       </c>
       <c r="B33" t="n">
-        <v>139271</v>
+        <v>170382</v>
       </c>
       <c r="C33" t="s">
         <v>247</v>
@@ -10585,7 +10585,7 @@
         <v>27216</v>
       </c>
       <c r="B34" t="n">
-        <v>139272</v>
+        <v>170383</v>
       </c>
       <c r="C34" t="s">
         <v>252</v>
@@ -10798,7 +10798,7 @@
         <v>27216</v>
       </c>
       <c r="B37" t="n">
-        <v>139273</v>
+        <v>170384</v>
       </c>
       <c r="C37" t="s">
         <v>271</v>
@@ -10869,7 +10869,7 @@
         <v>27216</v>
       </c>
       <c r="B38" t="n">
-        <v>139274</v>
+        <v>170385</v>
       </c>
       <c r="C38" t="s">
         <v>277</v>
@@ -11011,7 +11011,7 @@
         <v>27216</v>
       </c>
       <c r="B40" t="n">
-        <v>139275</v>
+        <v>170386</v>
       </c>
       <c r="C40" t="s">
         <v>289</v>
@@ -11153,7 +11153,7 @@
         <v>27216</v>
       </c>
       <c r="B42" t="n">
-        <v>139276</v>
+        <v>170387</v>
       </c>
       <c r="C42" t="s">
         <v>303</v>
@@ -11224,7 +11224,7 @@
         <v>27216</v>
       </c>
       <c r="B43" t="n">
-        <v>139277</v>
+        <v>139264</v>
       </c>
       <c r="C43" t="s">
         <v>310</v>
@@ -11295,7 +11295,7 @@
         <v>27216</v>
       </c>
       <c r="B44" t="n">
-        <v>139278</v>
+        <v>170388</v>
       </c>
       <c r="C44" t="s">
         <v>317</v>
@@ -11366,7 +11366,7 @@
         <v>27216</v>
       </c>
       <c r="B45" t="n">
-        <v>139279</v>
+        <v>170389</v>
       </c>
       <c r="C45" t="s">
         <v>324</v>
@@ -11427,7 +11427,7 @@
         <v>27216</v>
       </c>
       <c r="B46" t="n">
-        <v>139280</v>
+        <v>170390</v>
       </c>
       <c r="C46" t="s">
         <v>330</v>
@@ -11498,7 +11498,7 @@
         <v>27216</v>
       </c>
       <c r="B47" t="n">
-        <v>139281</v>
+        <v>170391</v>
       </c>
       <c r="C47" t="s">
         <v>335</v>
@@ -11640,7 +11640,7 @@
         <v>27216</v>
       </c>
       <c r="B49" t="n">
-        <v>139282</v>
+        <v>170392</v>
       </c>
       <c r="C49" t="s">
         <v>351</v>
@@ -11711,7 +11711,7 @@
         <v>27216</v>
       </c>
       <c r="B50" t="n">
-        <v>139283</v>
+        <v>170393</v>
       </c>
       <c r="C50" t="s">
         <v>357</v>
@@ -11772,7 +11772,7 @@
         <v>27216</v>
       </c>
       <c r="B51" t="n">
-        <v>139284</v>
+        <v>170394</v>
       </c>
       <c r="C51" t="s">
         <v>364</v>
@@ -11843,7 +11843,7 @@
         <v>27216</v>
       </c>
       <c r="B52" t="n">
-        <v>139285</v>
+        <v>170395</v>
       </c>
       <c r="C52" t="s">
         <v>370</v>
@@ -11914,7 +11914,7 @@
         <v>27216</v>
       </c>
       <c r="B53" t="n">
-        <v>139286</v>
+        <v>170396</v>
       </c>
       <c r="C53" t="s">
         <v>377</v>
@@ -11975,7 +11975,7 @@
         <v>27216</v>
       </c>
       <c r="B54" t="n">
-        <v>139287</v>
+        <v>170397</v>
       </c>
       <c r="C54" t="s">
         <v>384</v>
@@ -12046,7 +12046,7 @@
         <v>27216</v>
       </c>
       <c r="B55" t="n">
-        <v>139288</v>
+        <v>170398</v>
       </c>
       <c r="C55" t="s">
         <v>389</v>
@@ -12117,7 +12117,7 @@
         <v>27216</v>
       </c>
       <c r="B56" t="n">
-        <v>139289</v>
+        <v>170399</v>
       </c>
       <c r="C56" t="s">
         <v>395</v>
@@ -12188,7 +12188,7 @@
         <v>27216</v>
       </c>
       <c r="B57" t="n">
-        <v>139290</v>
+        <v>170400</v>
       </c>
       <c r="C57" t="s">
         <v>401</v>
@@ -12330,7 +12330,7 @@
         <v>27216</v>
       </c>
       <c r="B59" t="n">
-        <v>139291</v>
+        <v>170401</v>
       </c>
       <c r="C59" t="s">
         <v>414</v>
@@ -12401,7 +12401,7 @@
         <v>27216</v>
       </c>
       <c r="B60" t="n">
-        <v>139256</v>
+        <v>139257</v>
       </c>
       <c r="C60" t="s">
         <v>132</v>
@@ -12543,7 +12543,7 @@
         <v>27216</v>
       </c>
       <c r="B62" t="n">
-        <v>139292</v>
+        <v>170402</v>
       </c>
       <c r="C62" t="s">
         <v>431</v>
@@ -12685,7 +12685,7 @@
         <v>27216</v>
       </c>
       <c r="B64" t="n">
-        <v>139293</v>
+        <v>170403</v>
       </c>
       <c r="C64" t="s">
         <v>443</v>
@@ -12756,7 +12756,7 @@
         <v>27216</v>
       </c>
       <c r="B65" t="n">
-        <v>139294</v>
+        <v>170404</v>
       </c>
       <c r="C65" t="s">
         <v>449</v>
@@ -12827,7 +12827,7 @@
         <v>27216</v>
       </c>
       <c r="B66" t="n">
-        <v>139295</v>
+        <v>170405</v>
       </c>
       <c r="C66" t="s">
         <v>456</v>
@@ -12969,7 +12969,7 @@
         <v>27216</v>
       </c>
       <c r="B68" t="n">
-        <v>139296</v>
+        <v>170406</v>
       </c>
       <c r="C68" t="s">
         <v>467</v>
@@ -13101,7 +13101,7 @@
         <v>27216</v>
       </c>
       <c r="B70" t="n">
-        <v>139297</v>
+        <v>170407</v>
       </c>
       <c r="C70" t="s">
         <v>480</v>
@@ -13176,7 +13176,7 @@
         <v>27216</v>
       </c>
       <c r="B71" t="n">
-        <v>139298</v>
+        <v>170408</v>
       </c>
       <c r="C71" t="s">
         <v>489</v>
@@ -13247,7 +13247,7 @@
         <v>27216</v>
       </c>
       <c r="B72" t="n">
-        <v>139299</v>
+        <v>170409</v>
       </c>
       <c r="C72" t="s">
         <v>495</v>
@@ -13318,7 +13318,7 @@
         <v>27216</v>
       </c>
       <c r="B73" t="n">
-        <v>139300</v>
+        <v>170410</v>
       </c>
       <c r="C73" t="s">
         <v>501</v>
@@ -13533,7 +13533,7 @@
         <v>27216</v>
       </c>
       <c r="B76" t="n">
-        <v>139301</v>
+        <v>139318</v>
       </c>
       <c r="C76" t="s">
         <v>523</v>
@@ -13604,7 +13604,7 @@
         <v>27216</v>
       </c>
       <c r="B77" t="n">
-        <v>139302</v>
+        <v>170411</v>
       </c>
       <c r="C77" t="s">
         <v>529</v>
@@ -13675,7 +13675,7 @@
         <v>27216</v>
       </c>
       <c r="B78" t="n">
-        <v>139303</v>
+        <v>170412</v>
       </c>
       <c r="C78" t="s">
         <v>535</v>
@@ -13750,7 +13750,7 @@
         <v>27216</v>
       </c>
       <c r="B79" t="n">
-        <v>139304</v>
+        <v>170413</v>
       </c>
       <c r="C79" t="s">
         <v>544</v>
@@ -13821,7 +13821,7 @@
         <v>27216</v>
       </c>
       <c r="B80" t="n">
-        <v>139305</v>
+        <v>170414</v>
       </c>
       <c r="C80" t="s">
         <v>550</v>
@@ -13892,7 +13892,7 @@
         <v>27216</v>
       </c>
       <c r="B81" t="n">
-        <v>139306</v>
+        <v>170415</v>
       </c>
       <c r="C81" t="s">
         <v>556</v>
@@ -13963,7 +13963,7 @@
         <v>27216</v>
       </c>
       <c r="B82" t="n">
-        <v>139276</v>
+        <v>139264</v>
       </c>
       <c r="C82" t="s">
         <v>310</v>
@@ -14038,7 +14038,7 @@
         <v>27216</v>
       </c>
       <c r="B83" t="n">
-        <v>139307</v>
+        <v>170416</v>
       </c>
       <c r="C83" t="s">
         <v>572</v>
@@ -14099,7 +14099,7 @@
         <v>27216</v>
       </c>
       <c r="B84" t="n">
-        <v>139308</v>
+        <v>170417</v>
       </c>
       <c r="C84" t="s">
         <v>578</v>
@@ -14170,7 +14170,7 @@
         <v>27216</v>
       </c>
       <c r="B85" t="n">
-        <v>139309</v>
+        <v>170418</v>
       </c>
       <c r="C85" t="s">
         <v>583</v>
@@ -14241,7 +14241,7 @@
         <v>27216</v>
       </c>
       <c r="B86" t="n">
-        <v>139310</v>
+        <v>170419</v>
       </c>
       <c r="C86" t="s">
         <v>589</v>
@@ -14312,7 +14312,7 @@
         <v>27216</v>
       </c>
       <c r="B87" t="n">
-        <v>139311</v>
+        <v>144941</v>
       </c>
       <c r="C87" t="s">
         <v>596</v>
@@ -14383,7 +14383,7 @@
         <v>27216</v>
       </c>
       <c r="B88" t="n">
-        <v>139312</v>
+        <v>170420</v>
       </c>
       <c r="C88" t="s">
         <v>602</v>
@@ -14511,7 +14511,7 @@
         <v>27216</v>
       </c>
       <c r="B90" t="n">
-        <v>139313</v>
+        <v>170421</v>
       </c>
       <c r="C90" t="s">
         <v>615</v>
@@ -14576,7 +14576,7 @@
         <v>27216</v>
       </c>
       <c r="B91" t="n">
-        <v>139314</v>
+        <v>170422</v>
       </c>
       <c r="C91" t="s">
         <v>625</v>
@@ -14718,7 +14718,7 @@
         <v>27216</v>
       </c>
       <c r="B93" t="n">
-        <v>139315</v>
+        <v>170423</v>
       </c>
       <c r="C93" t="s">
         <v>637</v>
@@ -14779,7 +14779,7 @@
         <v>27216</v>
       </c>
       <c r="B94" t="n">
-        <v>139316</v>
+        <v>170424</v>
       </c>
       <c r="C94" t="s">
         <v>644</v>
@@ -14850,7 +14850,7 @@
         <v>27216</v>
       </c>
       <c r="B95" t="n">
-        <v>139317</v>
+        <v>170425</v>
       </c>
       <c r="C95" t="s">
         <v>649</v>
@@ -14996,7 +14996,7 @@
         <v>27216</v>
       </c>
       <c r="B97" t="n">
-        <v>139318</v>
+        <v>170426</v>
       </c>
       <c r="C97" t="s">
         <v>663</v>
@@ -15067,7 +15067,7 @@
         <v>27216</v>
       </c>
       <c r="B98" t="n">
-        <v>139319</v>
+        <v>170427</v>
       </c>
       <c r="C98" t="s">
         <v>669</v>
@@ -15132,7 +15132,7 @@
         <v>27216</v>
       </c>
       <c r="B99" t="n">
-        <v>139320</v>
+        <v>170428</v>
       </c>
       <c r="C99" t="s">
         <v>676</v>
@@ -15274,7 +15274,7 @@
         <v>27216</v>
       </c>
       <c r="B101" t="n">
-        <v>139321</v>
+        <v>170429</v>
       </c>
       <c r="C101" t="s">
         <v>688</v>
@@ -15345,7 +15345,7 @@
         <v>27216</v>
       </c>
       <c r="B102" t="n">
-        <v>139322</v>
+        <v>170430</v>
       </c>
       <c r="C102" t="s">
         <v>694</v>
@@ -15416,7 +15416,7 @@
         <v>27216</v>
       </c>
       <c r="B103" t="n">
-        <v>139323</v>
+        <v>170431</v>
       </c>
       <c r="C103" t="s">
         <v>700</v>
@@ -15491,7 +15491,7 @@
         <v>27216</v>
       </c>
       <c r="B104" t="n">
-        <v>139324</v>
+        <v>170432</v>
       </c>
       <c r="C104" t="s">
         <v>709</v>
@@ -15769,7 +15769,7 @@
         <v>27216</v>
       </c>
       <c r="B108" t="n">
-        <v>139325</v>
+        <v>170433</v>
       </c>
       <c r="C108" t="s">
         <v>735</v>
@@ -15840,7 +15840,7 @@
         <v>27216</v>
       </c>
       <c r="B109" t="n">
-        <v>139326</v>
+        <v>170434</v>
       </c>
       <c r="C109" t="s">
         <v>742</v>
@@ -15915,7 +15915,7 @@
         <v>27216</v>
       </c>
       <c r="B110" t="n">
-        <v>139327</v>
+        <v>170435</v>
       </c>
       <c r="C110" t="s">
         <v>751</v>
@@ -15976,7 +15976,7 @@
         <v>27216</v>
       </c>
       <c r="B111" t="n">
-        <v>139328</v>
+        <v>170436</v>
       </c>
       <c r="C111" t="s">
         <v>758</v>
@@ -16189,7 +16189,7 @@
         <v>27216</v>
       </c>
       <c r="B114" t="n">
-        <v>139329</v>
+        <v>170437</v>
       </c>
       <c r="C114" t="s">
         <v>780</v>
@@ -16325,7 +16325,7 @@
         <v>27216</v>
       </c>
       <c r="B116" t="n">
-        <v>139330</v>
+        <v>170438</v>
       </c>
       <c r="C116" t="s">
         <v>794</v>
@@ -16599,7 +16599,7 @@
         <v>27216</v>
       </c>
       <c r="B120" t="n">
-        <v>139331</v>
+        <v>170439</v>
       </c>
       <c r="C120" t="s">
         <v>822</v>
@@ -16816,7 +16816,7 @@
         <v>27216</v>
       </c>
       <c r="B123" t="n">
-        <v>139332</v>
+        <v>170440</v>
       </c>
       <c r="C123" t="s">
         <v>843</v>
@@ -16944,7 +16944,7 @@
         <v>27216</v>
       </c>
       <c r="B125" t="n">
-        <v>139333</v>
+        <v>170441</v>
       </c>
       <c r="C125" t="s">
         <v>856</v>
@@ -17157,7 +17157,7 @@
         <v>27216</v>
       </c>
       <c r="B128" t="n">
-        <v>139334</v>
+        <v>170442</v>
       </c>
       <c r="C128" t="s">
         <v>875</v>
@@ -17228,7 +17228,7 @@
         <v>27216</v>
       </c>
       <c r="B129" t="n">
-        <v>139335</v>
+        <v>170443</v>
       </c>
       <c r="C129" t="s">
         <v>881</v>
@@ -17295,7 +17295,7 @@
         <v>27216</v>
       </c>
       <c r="B130" t="n">
-        <v>139336</v>
+        <v>170444</v>
       </c>
       <c r="C130" t="s">
         <v>889</v>
@@ -17366,7 +17366,7 @@
         <v>27216</v>
       </c>
       <c r="B131" t="n">
-        <v>139337</v>
+        <v>170445</v>
       </c>
       <c r="C131" t="s">
         <v>895</v>
@@ -17437,7 +17437,7 @@
         <v>27216</v>
       </c>
       <c r="B132" t="n">
-        <v>139338</v>
+        <v>170446</v>
       </c>
       <c r="C132" t="s">
         <v>901</v>
@@ -17512,7 +17512,7 @@
         <v>27216</v>
       </c>
       <c r="B133" t="n">
-        <v>139339</v>
+        <v>170447</v>
       </c>
       <c r="C133" t="s">
         <v>910</v>
@@ -18137,7 +18137,7 @@
         <v>27216</v>
       </c>
       <c r="B142" t="n">
-        <v>139340</v>
+        <v>170448</v>
       </c>
       <c r="C142" t="s">
         <v>966</v>
@@ -18208,7 +18208,7 @@
         <v>27216</v>
       </c>
       <c r="B143" t="n">
-        <v>139341</v>
+        <v>170449</v>
       </c>
       <c r="C143" t="s">
         <v>970</v>
@@ -18350,7 +18350,7 @@
         <v>27216</v>
       </c>
       <c r="B145" t="n">
-        <v>139342</v>
+        <v>170450</v>
       </c>
       <c r="C145" t="s">
         <v>982</v>
@@ -18776,7 +18776,7 @@
         <v>27216</v>
       </c>
       <c r="B151" t="n">
-        <v>139343</v>
+        <v>170451</v>
       </c>
       <c r="C151" t="s">
         <v>1015</v>
@@ -18847,7 +18847,7 @@
         <v>27216</v>
       </c>
       <c r="B152" t="n">
-        <v>139344</v>
+        <v>170452</v>
       </c>
       <c r="C152" t="s">
         <v>1021</v>
@@ -18918,7 +18918,7 @@
         <v>27216</v>
       </c>
       <c r="B153" t="n">
-        <v>139345</v>
+        <v>170453</v>
       </c>
       <c r="C153" t="s">
         <v>1030</v>
@@ -18989,7 +18989,7 @@
         <v>27216</v>
       </c>
       <c r="B154" t="n">
-        <v>139346</v>
+        <v>170454</v>
       </c>
       <c r="C154" t="s">
         <v>1036</v>
@@ -19060,7 +19060,7 @@
         <v>27216</v>
       </c>
       <c r="B155" t="n">
-        <v>139347</v>
+        <v>170455</v>
       </c>
       <c r="C155" t="s">
         <v>1042</v>
@@ -19196,7 +19196,7 @@
         <v>27216</v>
       </c>
       <c r="B157" t="n">
-        <v>139348</v>
+        <v>170456</v>
       </c>
       <c r="C157" t="s">
         <v>1054</v>
@@ -19405,7 +19405,7 @@
         <v>27216</v>
       </c>
       <c r="B160" t="n">
-        <v>139349</v>
+        <v>170457</v>
       </c>
       <c r="C160" t="s">
         <v>1072</v>
@@ -19819,7 +19819,7 @@
         <v>27216</v>
       </c>
       <c r="B166" t="n">
-        <v>139350</v>
+        <v>170458</v>
       </c>
       <c r="C166" t="s">
         <v>1115</v>
@@ -19890,7 +19890,7 @@
         <v>27216</v>
       </c>
       <c r="B167" t="n">
-        <v>139351</v>
+        <v>170459</v>
       </c>
       <c r="C167" t="s">
         <v>1120</v>
@@ -20249,7 +20249,7 @@
         <v>27216</v>
       </c>
       <c r="B172" t="n">
-        <v>139352</v>
+        <v>170460</v>
       </c>
       <c r="C172" t="s">
         <v>1152</v>
@@ -20320,7 +20320,7 @@
         <v>27216</v>
       </c>
       <c r="B173" t="n">
-        <v>139353</v>
+        <v>170461</v>
       </c>
       <c r="C173" t="s">
         <v>1158</v>
@@ -20391,7 +20391,7 @@
         <v>27216</v>
       </c>
       <c r="B174" t="n">
-        <v>139354</v>
+        <v>170462</v>
       </c>
       <c r="C174" t="s">
         <v>1165</v>
@@ -20462,7 +20462,7 @@
         <v>27216</v>
       </c>
       <c r="B175" t="n">
-        <v>139355</v>
+        <v>170463</v>
       </c>
       <c r="C175" t="s">
         <v>1174</v>
@@ -20592,7 +20592,7 @@
         <v>27216</v>
       </c>
       <c r="B177" t="n">
-        <v>139356</v>
+        <v>170464</v>
       </c>
       <c r="C177" t="s">
         <v>1188</v>
@@ -20657,7 +20657,7 @@
         <v>27216</v>
       </c>
       <c r="B178" t="n">
-        <v>139357</v>
+        <v>170465</v>
       </c>
       <c r="C178" t="s">
         <v>1194</v>
@@ -20728,7 +20728,7 @@
         <v>27216</v>
       </c>
       <c r="B179" t="n">
-        <v>139358</v>
+        <v>139326</v>
       </c>
       <c r="C179" t="s">
         <v>1200</v>
@@ -20799,7 +20799,7 @@
         <v>27216</v>
       </c>
       <c r="B180" t="n">
-        <v>139359</v>
+        <v>170466</v>
       </c>
       <c r="C180" t="s">
         <v>1208</v>
@@ -20866,7 +20866,7 @@
         <v>27216</v>
       </c>
       <c r="B181" t="n">
-        <v>139360</v>
+        <v>170467</v>
       </c>
       <c r="C181" t="s">
         <v>1215</v>
@@ -21004,7 +21004,7 @@
         <v>27216</v>
       </c>
       <c r="B183" t="n">
-        <v>139361</v>
+        <v>170468</v>
       </c>
       <c r="C183" t="s">
         <v>1228</v>
@@ -21144,7 +21144,7 @@
         <v>27216</v>
       </c>
       <c r="B185" t="n">
-        <v>139362</v>
+        <v>170469</v>
       </c>
       <c r="C185" t="s">
         <v>1239</v>
@@ -21286,7 +21286,7 @@
         <v>27216</v>
       </c>
       <c r="B187" t="n">
-        <v>139363</v>
+        <v>170470</v>
       </c>
       <c r="C187" t="s">
         <v>1250</v>
@@ -21361,7 +21361,7 @@
         <v>27216</v>
       </c>
       <c r="B188" t="n">
-        <v>139364</v>
+        <v>170471</v>
       </c>
       <c r="C188" t="s">
         <v>1259</v>
@@ -21710,7 +21710,7 @@
         <v>27216</v>
       </c>
       <c r="B193" t="n">
-        <v>139365</v>
+        <v>170472</v>
       </c>
       <c r="C193" t="s">
         <v>1289</v>
@@ -21848,7 +21848,7 @@
         <v>27216</v>
       </c>
       <c r="B195" t="n">
-        <v>139366</v>
+        <v>170473</v>
       </c>
       <c r="C195" t="s">
         <v>1301</v>
@@ -21913,7 +21913,7 @@
         <v>27216</v>
       </c>
       <c r="B196" t="n">
-        <v>139367</v>
+        <v>170474</v>
       </c>
       <c r="C196" t="s">
         <v>1307</v>
@@ -21974,7 +21974,7 @@
         <v>27216</v>
       </c>
       <c r="B197" t="n">
-        <v>139300</v>
+        <v>139318</v>
       </c>
       <c r="C197" t="s">
         <v>523</v>
@@ -22045,7 +22045,7 @@
         <v>27216</v>
       </c>
       <c r="B198" t="n">
-        <v>139368</v>
+        <v>170475</v>
       </c>
       <c r="C198" t="s">
         <v>1319</v>
@@ -22106,7 +22106,7 @@
         <v>27216</v>
       </c>
       <c r="B199" t="n">
-        <v>139369</v>
+        <v>170476</v>
       </c>
       <c r="C199" t="s">
         <v>1326</v>
@@ -22238,7 +22238,7 @@
         <v>27216</v>
       </c>
       <c r="B201" t="n">
-        <v>139370</v>
+        <v>170477</v>
       </c>
       <c r="C201" t="s">
         <v>1339</v>
@@ -22447,7 +22447,7 @@
         <v>27216</v>
       </c>
       <c r="B204" t="n">
-        <v>139371</v>
+        <v>170478</v>
       </c>
       <c r="C204" t="s">
         <v>1358</v>
@@ -22508,7 +22508,7 @@
         <v>27216</v>
       </c>
       <c r="B205" t="n">
-        <v>139372</v>
+        <v>170479</v>
       </c>
       <c r="C205" t="s">
         <v>1364</v>
@@ -22644,7 +22644,7 @@
         <v>27216</v>
       </c>
       <c r="B207" t="n">
-        <v>139373</v>
+        <v>170480</v>
       </c>
       <c r="C207" t="s">
         <v>1379</v>
@@ -22711,7 +22711,7 @@
         <v>27216</v>
       </c>
       <c r="B208" t="n">
-        <v>139374</v>
+        <v>170481</v>
       </c>
       <c r="C208" t="s">
         <v>1386</v>
@@ -22839,7 +22839,7 @@
         <v>27216</v>
       </c>
       <c r="B210" t="n">
-        <v>139375</v>
+        <v>170482</v>
       </c>
       <c r="C210" t="s">
         <v>1398</v>
@@ -22910,7 +22910,7 @@
         <v>27216</v>
       </c>
       <c r="B211" t="n">
-        <v>139376</v>
+        <v>170483</v>
       </c>
       <c r="C211" t="s">
         <v>1404</v>
@@ -22981,7 +22981,7 @@
         <v>27216</v>
       </c>
       <c r="B212" t="n">
-        <v>139377</v>
+        <v>170484</v>
       </c>
       <c r="C212" t="s">
         <v>1410</v>
@@ -23042,7 +23042,7 @@
         <v>27216</v>
       </c>
       <c r="B213" t="n">
-        <v>139378</v>
+        <v>170485</v>
       </c>
       <c r="C213" t="s">
         <v>1417</v>
@@ -23249,7 +23249,7 @@
         <v>27216</v>
       </c>
       <c r="B216" t="n">
-        <v>139357</v>
+        <v>139326</v>
       </c>
       <c r="C216" t="s">
         <v>1200</v>
@@ -23687,7 +23687,7 @@
         <v>27216</v>
       </c>
       <c r="B222" t="n">
-        <v>139379</v>
+        <v>170486</v>
       </c>
       <c r="C222" t="s">
         <v>1478</v>
@@ -23758,7 +23758,7 @@
         <v>27216</v>
       </c>
       <c r="B223" t="n">
-        <v>139380</v>
+        <v>170487</v>
       </c>
       <c r="C223" t="s">
         <v>1484</v>
@@ -23833,7 +23833,7 @@
         <v>27216</v>
       </c>
       <c r="B224" t="n">
-        <v>139381</v>
+        <v>170488</v>
       </c>
       <c r="C224" t="s">
         <v>1490</v>
@@ -24046,7 +24046,7 @@
         <v>27216</v>
       </c>
       <c r="B227" t="n">
-        <v>139382</v>
+        <v>170489</v>
       </c>
       <c r="C227" t="s">
         <v>1508</v>
@@ -24186,7 +24186,7 @@
         <v>27216</v>
       </c>
       <c r="B229" t="n">
-        <v>139383</v>
+        <v>170490</v>
       </c>
       <c r="C229" t="s">
         <v>1524</v>
@@ -24314,7 +24314,7 @@
         <v>27216</v>
       </c>
       <c r="B231" t="n">
-        <v>139384</v>
+        <v>170491</v>
       </c>
       <c r="C231" t="s">
         <v>1535</v>
@@ -24582,7 +24582,7 @@
         <v>27216</v>
       </c>
       <c r="B235" t="n">
-        <v>139385</v>
+        <v>170492</v>
       </c>
       <c r="C235" t="s">
         <v>1561</v>
@@ -24653,7 +24653,7 @@
         <v>27216</v>
       </c>
       <c r="B236" t="n">
-        <v>139386</v>
+        <v>170493</v>
       </c>
       <c r="C236" t="s">
         <v>1567</v>
@@ -24724,7 +24724,7 @@
         <v>27216</v>
       </c>
       <c r="B237" t="n">
-        <v>139387</v>
+        <v>170494</v>
       </c>
       <c r="C237" t="s">
         <v>1573</v>
@@ -24793,7 +24793,7 @@
         <v>27216</v>
       </c>
       <c r="B238" t="n">
-        <v>139388</v>
+        <v>170495</v>
       </c>
       <c r="C238" t="s">
         <v>1582</v>
@@ -24868,7 +24868,7 @@
         <v>27216</v>
       </c>
       <c r="B239" t="n">
-        <v>139389</v>
+        <v>170496</v>
       </c>
       <c r="C239" t="s">
         <v>1588</v>
@@ -25014,7 +25014,7 @@
         <v>27216</v>
       </c>
       <c r="B241" t="n">
-        <v>139390</v>
+        <v>170497</v>
       </c>
       <c r="C241" t="s">
         <v>1602</v>
@@ -25085,7 +25085,7 @@
         <v>27216</v>
       </c>
       <c r="B242" t="n">
-        <v>139391</v>
+        <v>170498</v>
       </c>
       <c r="C242" t="s">
         <v>1608</v>
@@ -25156,7 +25156,7 @@
         <v>27216</v>
       </c>
       <c r="B243" t="n">
-        <v>139392</v>
+        <v>170499</v>
       </c>
       <c r="C243" t="s">
         <v>1614</v>
@@ -25381,7 +25381,7 @@
         <v>27216</v>
       </c>
       <c r="B246" t="n">
-        <v>139393</v>
+        <v>170500</v>
       </c>
       <c r="C246" t="s">
         <v>1638</v>
@@ -25527,7 +25527,7 @@
         <v>27216</v>
       </c>
       <c r="B248" t="n">
-        <v>139394</v>
+        <v>170501</v>
       </c>
       <c r="C248" t="s">
         <v>1650</v>
@@ -25602,7 +25602,7 @@
         <v>27216</v>
       </c>
       <c r="B249" t="n">
-        <v>139395</v>
+        <v>170502</v>
       </c>
       <c r="C249" t="s">
         <v>1659</v>
@@ -25728,7 +25728,7 @@
         <v>27216</v>
       </c>
       <c r="B251" t="n">
-        <v>139396</v>
+        <v>170503</v>
       </c>
       <c r="C251" t="s">
         <v>1671</v>
@@ -25799,7 +25799,7 @@
         <v>27216</v>
       </c>
       <c r="B252" t="n">
-        <v>139397</v>
+        <v>170504</v>
       </c>
       <c r="C252" t="s">
         <v>1678</v>
@@ -25874,7 +25874,7 @@
         <v>27216</v>
       </c>
       <c r="B253" t="n">
-        <v>139398</v>
+        <v>170505</v>
       </c>
       <c r="C253" t="s">
         <v>1685</v>
@@ -25949,7 +25949,7 @@
         <v>27216</v>
       </c>
       <c r="B254" t="n">
-        <v>139399</v>
+        <v>170506</v>
       </c>
       <c r="C254" t="s">
         <v>1693</v>
@@ -26091,7 +26091,7 @@
         <v>27216</v>
       </c>
       <c r="B256" t="n">
-        <v>139400</v>
+        <v>170507</v>
       </c>
       <c r="C256" t="s">
         <v>1705</v>
@@ -26237,7 +26237,7 @@
         <v>27216</v>
       </c>
       <c r="B258" t="n">
-        <v>139401</v>
+        <v>170508</v>
       </c>
       <c r="C258" t="s">
         <v>1720</v>
@@ -26312,7 +26312,7 @@
         <v>27216</v>
       </c>
       <c r="B259" t="n">
-        <v>139402</v>
+        <v>170509</v>
       </c>
       <c r="C259" t="s">
         <v>1726</v>
@@ -26744,7 +26744,7 @@
         <v>27216</v>
       </c>
       <c r="B265" t="n">
-        <v>139403</v>
+        <v>170510</v>
       </c>
       <c r="C265" t="s">
         <v>1767</v>
@@ -26819,7 +26819,7 @@
         <v>27216</v>
       </c>
       <c r="B266" t="n">
-        <v>139404</v>
+        <v>170511</v>
       </c>
       <c r="C266" t="s">
         <v>1775</v>
@@ -26894,7 +26894,7 @@
         <v>27216</v>
       </c>
       <c r="B267" t="n">
-        <v>139405</v>
+        <v>170512</v>
       </c>
       <c r="C267" t="s">
         <v>1782</v>
@@ -26965,7 +26965,7 @@
         <v>27216</v>
       </c>
       <c r="B268" t="n">
-        <v>139406</v>
+        <v>170513</v>
       </c>
       <c r="C268" t="s">
         <v>1788</v>
@@ -27036,7 +27036,7 @@
         <v>27216</v>
       </c>
       <c r="B269" t="n">
-        <v>139407</v>
+        <v>139366</v>
       </c>
       <c r="C269" t="s">
         <v>1795</v>
@@ -27111,7 +27111,7 @@
         <v>27216</v>
       </c>
       <c r="B270" t="n">
-        <v>139408</v>
+        <v>170514</v>
       </c>
       <c r="C270" t="s">
         <v>1804</v>
@@ -27186,7 +27186,7 @@
         <v>27216</v>
       </c>
       <c r="B271" t="n">
-        <v>139409</v>
+        <v>170515</v>
       </c>
       <c r="C271" t="s">
         <v>1812</v>
@@ -27261,7 +27261,7 @@
         <v>27216</v>
       </c>
       <c r="B272" t="n">
-        <v>139410</v>
+        <v>170516</v>
       </c>
       <c r="C272" t="s">
         <v>1821</v>
@@ -27411,7 +27411,7 @@
         <v>27216</v>
       </c>
       <c r="B274" t="n">
-        <v>139411</v>
+        <v>170517</v>
       </c>
       <c r="C274" t="s">
         <v>1837</v>
@@ -27557,7 +27557,7 @@
         <v>27216</v>
       </c>
       <c r="B276" t="n">
-        <v>139412</v>
+        <v>170518</v>
       </c>
       <c r="C276" t="s">
         <v>1850</v>
@@ -27622,7 +27622,7 @@
         <v>27216</v>
       </c>
       <c r="B277" t="n">
-        <v>139413</v>
+        <v>170519</v>
       </c>
       <c r="C277" t="s">
         <v>1859</v>
@@ -27697,7 +27697,7 @@
         <v>27216</v>
       </c>
       <c r="B278" t="n">
-        <v>139414</v>
+        <v>170520</v>
       </c>
       <c r="C278" t="s">
         <v>1866</v>
@@ -27768,7 +27768,7 @@
         <v>27216</v>
       </c>
       <c r="B279" t="n">
-        <v>139415</v>
+        <v>170521</v>
       </c>
       <c r="C279" t="s">
         <v>1872</v>
@@ -27839,7 +27839,7 @@
         <v>27216</v>
       </c>
       <c r="B280" t="n">
-        <v>139416</v>
+        <v>170522</v>
       </c>
       <c r="C280" t="s">
         <v>1877</v>
@@ -27910,7 +27910,7 @@
         <v>27216</v>
       </c>
       <c r="B281" t="n">
-        <v>139417</v>
+        <v>170523</v>
       </c>
       <c r="C281" t="s">
         <v>1885</v>
@@ -28052,7 +28052,7 @@
         <v>27216</v>
       </c>
       <c r="B283" t="n">
-        <v>139418</v>
+        <v>170524</v>
       </c>
       <c r="C283" t="s">
         <v>1897</v>
@@ -28123,7 +28123,7 @@
         <v>27216</v>
       </c>
       <c r="B284" t="n">
-        <v>139419</v>
+        <v>170525</v>
       </c>
       <c r="C284" t="s">
         <v>1902</v>
@@ -28194,7 +28194,7 @@
         <v>27216</v>
       </c>
       <c r="B285" t="n">
-        <v>139420</v>
+        <v>170526</v>
       </c>
       <c r="C285" t="s">
         <v>1908</v>
@@ -28269,7 +28269,7 @@
         <v>27216</v>
       </c>
       <c r="B286" t="n">
-        <v>139421</v>
+        <v>170527</v>
       </c>
       <c r="C286" t="s">
         <v>1917</v>
@@ -28344,7 +28344,7 @@
         <v>27216</v>
       </c>
       <c r="B287" t="n">
-        <v>139422</v>
+        <v>170528</v>
       </c>
       <c r="C287" t="s">
         <v>1924</v>
@@ -28415,7 +28415,7 @@
         <v>27216</v>
       </c>
       <c r="B288" t="n">
-        <v>139423</v>
+        <v>170529</v>
       </c>
       <c r="C288" t="s">
         <v>1930</v>
@@ -28561,7 +28561,7 @@
         <v>27216</v>
       </c>
       <c r="B290" t="n">
-        <v>139424</v>
+        <v>170530</v>
       </c>
       <c r="C290" t="s">
         <v>1946</v>
@@ -28632,7 +28632,7 @@
         <v>27216</v>
       </c>
       <c r="B291" t="n">
-        <v>139425</v>
+        <v>170531</v>
       </c>
       <c r="C291" t="s">
         <v>1952</v>
@@ -28707,7 +28707,7 @@
         <v>27216</v>
       </c>
       <c r="B292" t="n">
-        <v>139426</v>
+        <v>170532</v>
       </c>
       <c r="C292" t="s">
         <v>1962</v>
@@ -29131,7 +29131,7 @@
         <v>27216</v>
       </c>
       <c r="B298" t="n">
-        <v>139427</v>
+        <v>170533</v>
       </c>
       <c r="C298" t="s">
         <v>2003</v>
@@ -29281,7 +29281,7 @@
         <v>27216</v>
       </c>
       <c r="B300" t="n">
-        <v>139428</v>
+        <v>170534</v>
       </c>
       <c r="C300" t="s">
         <v>2020</v>
@@ -29581,7 +29581,7 @@
         <v>27216</v>
       </c>
       <c r="B304" t="n">
-        <v>139429</v>
+        <v>170535</v>
       </c>
       <c r="C304" t="s">
         <v>2048</v>
@@ -29806,7 +29806,7 @@
         <v>27216</v>
       </c>
       <c r="B307" t="n">
-        <v>139430</v>
+        <v>170536</v>
       </c>
       <c r="C307" t="s">
         <v>2073</v>
@@ -29881,7 +29881,7 @@
         <v>27216</v>
       </c>
       <c r="B308" t="n">
-        <v>139431</v>
+        <v>170537</v>
       </c>
       <c r="C308" t="s">
         <v>2082</v>
@@ -29956,7 +29956,7 @@
         <v>27216</v>
       </c>
       <c r="B309" t="n">
-        <v>139432</v>
+        <v>170538</v>
       </c>
       <c r="C309" t="s">
         <v>2092</v>
@@ -30031,7 +30031,7 @@
         <v>27216</v>
       </c>
       <c r="B310" t="n">
-        <v>139433</v>
+        <v>170539</v>
       </c>
       <c r="C310" t="s">
         <v>2101</v>
@@ -30106,7 +30106,7 @@
         <v>27216</v>
       </c>
       <c r="B311" t="n">
-        <v>139406</v>
+        <v>139366</v>
       </c>
       <c r="C311" t="s">
         <v>1795</v>
@@ -30238,7 +30238,7 @@
         <v>27216</v>
       </c>
       <c r="B313" t="n">
-        <v>139434</v>
+        <v>170540</v>
       </c>
       <c r="C313" t="s">
         <v>2119</v>
@@ -30313,7 +30313,7 @@
         <v>27216</v>
       </c>
       <c r="B314" t="n">
-        <v>139435</v>
+        <v>170541</v>
       </c>
       <c r="C314" t="s">
         <v>2129</v>
@@ -30384,7 +30384,7 @@
         <v>27216</v>
       </c>
       <c r="B315" t="n">
-        <v>139436</v>
+        <v>170542</v>
       </c>
       <c r="C315" t="s">
         <v>2135</v>
@@ -30455,7 +30455,7 @@
         <v>27216</v>
       </c>
       <c r="B316" t="n">
-        <v>139437</v>
+        <v>170543</v>
       </c>
       <c r="C316" t="s">
         <v>2141</v>
@@ -30597,7 +30597,7 @@
         <v>27216</v>
       </c>
       <c r="B318" t="n">
-        <v>139438</v>
+        <v>170544</v>
       </c>
       <c r="C318" t="s">
         <v>2153</v>
@@ -30668,7 +30668,7 @@
         <v>27216</v>
       </c>
       <c r="B319" t="n">
-        <v>139439</v>
+        <v>170545</v>
       </c>
       <c r="C319" t="s">
         <v>2161</v>
@@ -30810,7 +30810,7 @@
         <v>27216</v>
       </c>
       <c r="B321" t="n">
-        <v>139440</v>
+        <v>170546</v>
       </c>
       <c r="C321" t="s">
         <v>2174</v>
@@ -30952,7 +30952,7 @@
         <v>27216</v>
       </c>
       <c r="B323" t="n">
-        <v>139441</v>
+        <v>170547</v>
       </c>
       <c r="C323" t="s">
         <v>2186</v>
@@ -31023,7 +31023,7 @@
         <v>27216</v>
       </c>
       <c r="B324" t="n">
-        <v>139442</v>
+        <v>170548</v>
       </c>
       <c r="C324" t="s">
         <v>2192</v>
@@ -31165,7 +31165,7 @@
         <v>27216</v>
       </c>
       <c r="B326" t="n">
-        <v>139443</v>
+        <v>170549</v>
       </c>
       <c r="C326" t="s">
         <v>2205</v>
@@ -31236,7 +31236,7 @@
         <v>27216</v>
       </c>
       <c r="B327" t="n">
-        <v>139444</v>
+        <v>170550</v>
       </c>
       <c r="C327" t="s">
         <v>2213</v>
@@ -31449,7 +31449,7 @@
         <v>27216</v>
       </c>
       <c r="B330" t="n">
-        <v>139445</v>
+        <v>170551</v>
       </c>
       <c r="C330" t="s">
         <v>2234</v>
@@ -31516,7 +31516,7 @@
         <v>27216</v>
       </c>
       <c r="B331" t="n">
-        <v>139446</v>
+        <v>170552</v>
       </c>
       <c r="C331" t="s">
         <v>2240</v>
@@ -31587,7 +31587,7 @@
         <v>27216</v>
       </c>
       <c r="B332" t="n">
-        <v>139447</v>
+        <v>170553</v>
       </c>
       <c r="C332" t="s">
         <v>2246</v>
@@ -31658,7 +31658,7 @@
         <v>27216</v>
       </c>
       <c r="B333" t="n">
-        <v>139448</v>
+        <v>170554</v>
       </c>
       <c r="C333" t="s">
         <v>2253</v>
@@ -31729,7 +31729,7 @@
         <v>27216</v>
       </c>
       <c r="B334" t="n">
-        <v>139449</v>
+        <v>170555</v>
       </c>
       <c r="C334" t="s">
         <v>2260</v>
@@ -31800,7 +31800,7 @@
         <v>27216</v>
       </c>
       <c r="B335" t="n">
-        <v>139450</v>
+        <v>170556</v>
       </c>
       <c r="C335" t="s">
         <v>2267</v>
@@ -31867,7 +31867,7 @@
         <v>27216</v>
       </c>
       <c r="B336" t="n">
-        <v>139451</v>
+        <v>170557</v>
       </c>
       <c r="C336" t="s">
         <v>2273</v>
@@ -31928,7 +31928,7 @@
         <v>27216</v>
       </c>
       <c r="B337" t="n">
-        <v>139452</v>
+        <v>170558</v>
       </c>
       <c r="C337" t="s">
         <v>2279</v>
@@ -32074,7 +32074,7 @@
         <v>27216</v>
       </c>
       <c r="B339" t="n">
-        <v>139453</v>
+        <v>170559</v>
       </c>
       <c r="C339" t="s">
         <v>2296</v>
@@ -32216,7 +32216,7 @@
         <v>27216</v>
       </c>
       <c r="B341" t="n">
-        <v>139454</v>
+        <v>170560</v>
       </c>
       <c r="C341" t="s">
         <v>2309</v>
@@ -32287,7 +32287,7 @@
         <v>27216</v>
       </c>
       <c r="B342" t="n">
-        <v>139455</v>
+        <v>170561</v>
       </c>
       <c r="C342" t="s">
         <v>2316</v>
@@ -32358,7 +32358,7 @@
         <v>27216</v>
       </c>
       <c r="B343" t="n">
-        <v>139456</v>
+        <v>170562</v>
       </c>
       <c r="C343" t="s">
         <v>2323</v>
@@ -32429,7 +32429,7 @@
         <v>27216</v>
       </c>
       <c r="B344" t="n">
-        <v>139457</v>
+        <v>170563</v>
       </c>
       <c r="C344" t="s">
         <v>2331</v>
@@ -32500,7 +32500,7 @@
         <v>27216</v>
       </c>
       <c r="B345" t="n">
-        <v>139458</v>
+        <v>170564</v>
       </c>
       <c r="C345" t="s">
         <v>2339</v>
@@ -32571,7 +32571,7 @@
         <v>27216</v>
       </c>
       <c r="B346" t="n">
-        <v>139459</v>
+        <v>170565</v>
       </c>
       <c r="C346" t="s">
         <v>2347</v>
@@ -32642,7 +32642,7 @@
         <v>27216</v>
       </c>
       <c r="B347" t="n">
-        <v>139460</v>
+        <v>170566</v>
       </c>
       <c r="C347" t="s">
         <v>2353</v>
@@ -32713,7 +32713,7 @@
         <v>27216</v>
       </c>
       <c r="B348" t="n">
-        <v>139461</v>
+        <v>170567</v>
       </c>
       <c r="C348" t="s">
         <v>2360</v>
@@ -32855,7 +32855,7 @@
         <v>27216</v>
       </c>
       <c r="B350" t="n">
-        <v>139462</v>
+        <v>170568</v>
       </c>
       <c r="C350" t="s">
         <v>2373</v>
@@ -32922,7 +32922,7 @@
         <v>27216</v>
       </c>
       <c r="B351" t="n">
-        <v>139463</v>
+        <v>170569</v>
       </c>
       <c r="C351" t="s">
         <v>2380</v>
@@ -33056,7 +33056,7 @@
         <v>27216</v>
       </c>
       <c r="B353" t="n">
-        <v>139464</v>
+        <v>170570</v>
       </c>
       <c r="C353" t="s">
         <v>2396</v>
@@ -33127,7 +33127,7 @@
         <v>27216</v>
       </c>
       <c r="B354" t="n">
-        <v>139465</v>
+        <v>170571</v>
       </c>
       <c r="C354" t="s">
         <v>2402</v>
@@ -33198,7 +33198,7 @@
         <v>27216</v>
       </c>
       <c r="B355" t="n">
-        <v>139466</v>
+        <v>170572</v>
       </c>
       <c r="C355" t="s">
         <v>2409</v>
@@ -33269,7 +33269,7 @@
         <v>27216</v>
       </c>
       <c r="B356" t="n">
-        <v>139467</v>
+        <v>170573</v>
       </c>
       <c r="C356" t="s">
         <v>2417</v>
@@ -33340,7 +33340,7 @@
         <v>27216</v>
       </c>
       <c r="B357" t="n">
-        <v>139468</v>
+        <v>170574</v>
       </c>
       <c r="C357" t="s">
         <v>2425</v>
@@ -33411,7 +33411,7 @@
         <v>27216</v>
       </c>
       <c r="B358" t="n">
-        <v>139469</v>
+        <v>170575</v>
       </c>
       <c r="C358" t="s">
         <v>2433</v>
@@ -33482,7 +33482,7 @@
         <v>27216</v>
       </c>
       <c r="B359" t="n">
-        <v>139470</v>
+        <v>170576</v>
       </c>
       <c r="C359" t="s">
         <v>2440</v>
@@ -33553,7 +33553,7 @@
         <v>27216</v>
       </c>
       <c r="B360" t="n">
-        <v>139471</v>
+        <v>170577</v>
       </c>
       <c r="C360" t="s">
         <v>2448</v>
@@ -33624,7 +33624,7 @@
         <v>27216</v>
       </c>
       <c r="B361" t="n">
-        <v>139472</v>
+        <v>170578</v>
       </c>
       <c r="C361" t="s">
         <v>2456</v>
@@ -33766,7 +33766,7 @@
         <v>27216</v>
       </c>
       <c r="B363" t="n">
-        <v>139473</v>
+        <v>170579</v>
       </c>
       <c r="C363" t="s">
         <v>2471</v>
@@ -33837,7 +33837,7 @@
         <v>27216</v>
       </c>
       <c r="B364" t="n">
-        <v>139474</v>
+        <v>170580</v>
       </c>
       <c r="C364" t="s">
         <v>2477</v>
@@ -33908,7 +33908,7 @@
         <v>27216</v>
       </c>
       <c r="B365" t="n">
-        <v>139475</v>
+        <v>170581</v>
       </c>
       <c r="C365" t="s">
         <v>2485</v>
@@ -33979,7 +33979,7 @@
         <v>27216</v>
       </c>
       <c r="B366" t="n">
-        <v>139476</v>
+        <v>170582</v>
       </c>
       <c r="C366" t="s">
         <v>2493</v>
@@ -34046,7 +34046,7 @@
         <v>27216</v>
       </c>
       <c r="B367" t="n">
-        <v>139477</v>
+        <v>170583</v>
       </c>
       <c r="C367" t="s">
         <v>2500</v>
@@ -34117,7 +34117,7 @@
         <v>27216</v>
       </c>
       <c r="B368" t="n">
-        <v>139478</v>
+        <v>170584</v>
       </c>
       <c r="C368" t="s">
         <v>2507</v>
@@ -34188,7 +34188,7 @@
         <v>27216</v>
       </c>
       <c r="B369" t="n">
-        <v>139479</v>
+        <v>170585</v>
       </c>
       <c r="C369" t="s">
         <v>2515</v>
@@ -34259,7 +34259,7 @@
         <v>27216</v>
       </c>
       <c r="B370" t="n">
-        <v>139480</v>
+        <v>170586</v>
       </c>
       <c r="C370" t="s">
         <v>2523</v>
@@ -34330,7 +34330,7 @@
         <v>27216</v>
       </c>
       <c r="B371" t="n">
-        <v>139481</v>
+        <v>170587</v>
       </c>
       <c r="C371" t="s">
         <v>2530</v>
@@ -34401,7 +34401,7 @@
         <v>27216</v>
       </c>
       <c r="B372" t="n">
-        <v>139482</v>
+        <v>170588</v>
       </c>
       <c r="C372" t="s">
         <v>2538</v>
@@ -34458,7 +34458,7 @@
         <v>27216</v>
       </c>
       <c r="B373" t="n">
-        <v>139483</v>
+        <v>170589</v>
       </c>
       <c r="C373" t="s">
         <v>2544</v>
@@ -34594,7 +34594,7 @@
         <v>27216</v>
       </c>
       <c r="B375" t="n">
-        <v>139484</v>
+        <v>170590</v>
       </c>
       <c r="C375" t="s">
         <v>2558</v>
